--- a/data/trans_dic/Q45B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Q45B_R-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.00285401123411885</v>
+        <v>0.002705147311945919</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01068701492362063</v>
+        <v>0.01003208393455229</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.005142052971565834</v>
+        <v>0.00517271747964028</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0163015596655006</v>
+        <v>0.01576996007170772</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01774228825191891</v>
+        <v>0.01693299995916084</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.002167223955635709</v>
+        <v>0.002126542039841649</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0108918660297807</v>
+        <v>0.01140020973410349</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01615273799024509</v>
+        <v>0.01626630356985434</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.004552934705995594</v>
+        <v>0.004955794654283342</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01282639922098634</v>
+        <v>0.01292251499246405</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02771357864570945</v>
+        <v>0.02599874169759696</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02118842774508484</v>
+        <v>0.02073070207082497</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03295659614518759</v>
+        <v>0.03271073686241745</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03675115084565801</v>
+        <v>0.03573025332647627</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0123176815728412</v>
+        <v>0.01326898996981906</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02237463974694016</v>
+        <v>0.02231796154802535</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02903632817911274</v>
+        <v>0.02814392742025908</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01353115471640147</v>
+        <v>0.01355074458344265</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01637198439363667</v>
+        <v>0.01632696359747254</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01933566911150643</v>
+        <v>0.01900982505046684</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004763519900445485</v>
+        <v>0.004914189033351691</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09149533801243763</v>
+        <v>0.09213385005343198</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07566201286820201</v>
+        <v>0.07678726193607779</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03360247661499986</v>
+        <v>0.03452010284986583</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0552560491602584</v>
+        <v>0.05547392206742028</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04834919391639116</v>
+        <v>0.04898459921346637</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0204606387833625</v>
+        <v>0.02040998537422942</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03116433256480793</v>
+        <v>0.0301310699926554</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0339328222600949</v>
+        <v>0.03423811499629793</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01246730185455304</v>
+        <v>0.01314224787377835</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1227846468606611</v>
+        <v>0.1218635681016952</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1041716129500949</v>
+        <v>0.1043869326338558</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05205946510204129</v>
+        <v>0.05244849657023046</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07185889564421506</v>
+        <v>0.07286455573877539</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06358574255786138</v>
+        <v>0.06370426026944437</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02979113875668317</v>
+        <v>0.03058012479329722</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02293417563034295</v>
+        <v>0.02335592542305111</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02022079904495288</v>
+        <v>0.02194997353559702</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.006864224033117728</v>
+        <v>0.005337677334679746</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1030467923982509</v>
+        <v>0.1034628121664879</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1263964972737078</v>
+        <v>0.1270737042869897</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03862190411552339</v>
+        <v>0.03913566822384415</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06635373650215792</v>
+        <v>0.06433126994640224</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07843183578570763</v>
+        <v>0.0780858597843469</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02599717278705944</v>
+        <v>0.02638257976335333</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05742497195367594</v>
+        <v>0.05908905760285475</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06050258027769444</v>
+        <v>0.0597006734229502</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02606918540419232</v>
+        <v>0.02615246103020561</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1668930720499519</v>
+        <v>0.166777857232387</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2028261656577469</v>
+        <v>0.2006182172308362</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0797792405901913</v>
+        <v>0.07934898025720477</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1020387654019511</v>
+        <v>0.1003602256575659</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1212917005635583</v>
+        <v>0.1201993142743816</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04881279840758779</v>
+        <v>0.04822376249785277</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01548822130009274</v>
+        <v>0.01551058021790936</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02037026722824963</v>
+        <v>0.01987122818471851</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.006424119655814733</v>
+        <v>0.006756232221046674</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06875888371794873</v>
+        <v>0.0688852891732273</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06478184732779081</v>
+        <v>0.06527823059611848</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02952558235724724</v>
+        <v>0.029229420793387</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04489091120795585</v>
+        <v>0.04426547535522569</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04496466608123225</v>
+        <v>0.04447341781125217</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0191965594858987</v>
+        <v>0.01922271022190729</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02509985661187526</v>
+        <v>0.02567120914193067</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03126420315688266</v>
+        <v>0.03132824387150265</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01327869959311126</v>
+        <v>0.01321646094120296</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08861432677000511</v>
+        <v>0.08793568542389285</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08394032757806209</v>
+        <v>0.08384069307843693</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04213368164805451</v>
+        <v>0.04149817742478446</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05519352739341961</v>
+        <v>0.0551809956463087</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05552632409943062</v>
+        <v>0.05556956606806746</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02602324816147262</v>
+        <v>0.02614334272167374</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2945</v>
+        <v>2791</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10383</v>
+        <v>9747</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3859</v>
+        <v>3882</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>21438</v>
+        <v>20739</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>23661</v>
+        <v>22582</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2151</v>
+        <v>2110</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>25561</v>
+        <v>26754</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>37235</v>
+        <v>37497</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>7936</v>
+        <v>8638</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13233</v>
+        <v>13332</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>26926</v>
+        <v>25260</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15903</v>
+        <v>15559</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>43342</v>
+        <v>43018</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>49011</v>
+        <v>47650</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>12224</v>
+        <v>13168</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>52510</v>
+        <v>52377</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>66934</v>
+        <v>64877</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>23584</v>
+        <v>23619</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>27725</v>
+        <v>27648</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>37821</v>
+        <v>37184</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>9845</v>
+        <v>10156</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>145265</v>
+        <v>146278</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>132439</v>
+        <v>134409</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>66461</v>
+        <v>68276</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>181300</v>
+        <v>182015</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>179204</v>
+        <v>181559</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>82753</v>
+        <v>82548</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>52774</v>
+        <v>51024</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>66374</v>
+        <v>66971</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>25766</v>
+        <v>27161</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>194942</v>
+        <v>193479</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>182343</v>
+        <v>182720</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>102966</v>
+        <v>103735</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>235775</v>
+        <v>239075</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>235678</v>
+        <v>236117</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>120491</v>
+        <v>123682</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>12646</v>
+        <v>12879</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9686</v>
+        <v>10515</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3747</v>
+        <v>2913</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>49093</v>
+        <v>49291</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>57727</v>
+        <v>58036</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>21209</v>
+        <v>21491</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>68200</v>
+        <v>66121</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>73391</v>
+        <v>73068</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>28466</v>
+        <v>28888</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>31665</v>
+        <v>32582</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>28982</v>
+        <v>28598</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14229</v>
+        <v>14274</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>79510</v>
+        <v>79455</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>92633</v>
+        <v>91625</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>43810</v>
+        <v>43574</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>104877</v>
+        <v>103152</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>113497</v>
+        <v>112475</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>53448</v>
+        <v>52803</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>50748</v>
+        <v>50821</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>69394</v>
+        <v>67694</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>21604</v>
+        <v>22721</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>232350</v>
+        <v>232777</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>229374</v>
+        <v>231132</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>103913</v>
+        <v>102870</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>298782</v>
+        <v>294620</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>312386</v>
+        <v>308973</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>132119</v>
+        <v>132299</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>82241</v>
+        <v>84113</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>106506</v>
+        <v>106724</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>44657</v>
+        <v>44447</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>299445</v>
+        <v>297152</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>297209</v>
+        <v>296856</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>148286</v>
+        <v>146049</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>367354</v>
+        <v>367270</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>385762</v>
+        <v>386063</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>179103</v>
+        <v>179930</v>
       </c>
     </row>
     <row r="20">
